--- a/src/test/resources/OtherData/StockName.xlsx
+++ b/src/test/resources/OtherData/StockName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>StockName</t>
   </si>
@@ -76,6 +76,93 @@
   </si>
   <si>
     <t>mphasis share price</t>
+  </si>
+  <si>
+    <t>Asian Pain Share Price</t>
+  </si>
+  <si>
+    <t>wipro share price</t>
+  </si>
+  <si>
+    <t>lti mindtree share price</t>
+  </si>
+  <si>
+    <t>sonata software share price</t>
+  </si>
+  <si>
+    <t>Honeywell share price</t>
+  </si>
+  <si>
+    <t>20/12/2022</t>
+  </si>
+  <si>
+    <t>−34.70</t>
+  </si>
+  <si>
+    <t>−147.85</t>
+  </si>
+  <si>
+    <t>+0.080</t>
+  </si>
+  <si>
+    <t>−14.90</t>
+  </si>
+  <si>
+    <t>−58.55</t>
+  </si>
+  <si>
+    <t>−4.45</t>
+  </si>
+  <si>
+    <t>−0.80</t>
+  </si>
+  <si>
+    <t>+11.95</t>
+  </si>
+  <si>
+    <t>−3.05</t>
+  </si>
+  <si>
+    <t>−7.90</t>
+  </si>
+  <si>
+    <t>−1.40</t>
+  </si>
+  <si>
+    <t>−9.65</t>
+  </si>
+  <si>
+    <t>−30.10</t>
+  </si>
+  <si>
+    <t>−8.50</t>
+  </si>
+  <si>
+    <t>−7.25</t>
+  </si>
+  <si>
+    <t>−57.85</t>
+  </si>
+  <si>
+    <t>−14.95</t>
+  </si>
+  <si>
+    <t>+16.15</t>
+  </si>
+  <si>
+    <t>−14.05</t>
+  </si>
+  <si>
+    <t>−2.45</t>
+  </si>
+  <si>
+    <t>−36.05</t>
+  </si>
+  <si>
+    <t>−14.65</t>
+  </si>
+  <si>
+    <t>−0.33</t>
   </si>
 </sst>
 </file>
@@ -400,110 +487,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/OtherData/StockName.xlsx
+++ b/src/test/resources/OtherData/StockName.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Set1" sheetId="1" r:id="rId1"/>
+    <sheet name="Set2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="236">
   <si>
     <t>StockName</t>
   </si>
@@ -99,76 +100,641 @@
     <t>−34.70</t>
   </si>
   <si>
-    <t>−147.85</t>
-  </si>
-  <si>
-    <t>+0.080</t>
+    <t>−0.33</t>
+  </si>
+  <si>
+    <t>−35.15</t>
+  </si>
+  <si>
+    <t>+0.31</t>
+  </si>
+  <si>
+    <t>−9.75</t>
+  </si>
+  <si>
+    <t>−43.10</t>
+  </si>
+  <si>
+    <t>−1.45</t>
+  </si>
+  <si>
+    <t>+0.050</t>
+  </si>
+  <si>
+    <t>+39.95</t>
+  </si>
+  <si>
+    <t>−0.60</t>
+  </si>
+  <si>
+    <t>−10.10</t>
+  </si>
+  <si>
+    <t>+10.60</t>
+  </si>
+  <si>
+    <t>−7.30</t>
+  </si>
+  <si>
+    <t>−8.65</t>
+  </si>
+  <si>
+    <t>−8.05</t>
+  </si>
+  <si>
+    <t>−0.85</t>
+  </si>
+  <si>
+    <t>−49.35</t>
+  </si>
+  <si>
+    <t>−8.20</t>
+  </si>
+  <si>
+    <t>+21.95</t>
+  </si>
+  <si>
+    <t>−4.75</t>
+  </si>
+  <si>
+    <t>+0.85</t>
+  </si>
+  <si>
+    <t>−17.60</t>
+  </si>
+  <si>
+    <t>−15.15</t>
+  </si>
+  <si>
+    <t>Amazon Share Price</t>
+  </si>
+  <si>
+    <t>cognizant share price</t>
+  </si>
+  <si>
+    <t>tesla share price</t>
+  </si>
+  <si>
+    <t>oracle share price</t>
+  </si>
+  <si>
+    <t>s&amp;p 500</t>
+  </si>
+  <si>
+    <t>uber share price</t>
+  </si>
+  <si>
+    <t>Microsoft Share Price</t>
+  </si>
+  <si>
+    <t>Apple Share Price</t>
+  </si>
+  <si>
+    <t>infy nasdaq share price</t>
+  </si>
+  <si>
+    <t>google share price</t>
+  </si>
+  <si>
+    <t>+0.62</t>
+  </si>
+  <si>
+    <t>+0.32</t>
+  </si>
+  <si>
+    <t>−6.56</t>
+  </si>
+  <si>
+    <t>+0.67</t>
+  </si>
+  <si>
+    <t>+8.38</t>
+  </si>
+  <si>
+    <t>−0.035</t>
+  </si>
+  <si>
+    <t>+0.96</t>
+  </si>
+  <si>
+    <t>−0.38</t>
+  </si>
+  <si>
+    <t>+0.24</t>
+  </si>
+  <si>
+    <t>21/12/2022</t>
+  </si>
+  <si>
+    <t>+3.96</t>
+  </si>
+  <si>
+    <t>−67.45</t>
+  </si>
+  <si>
+    <t>+0.13</t>
+  </si>
+  <si>
+    <t>−5.60</t>
+  </si>
+  <si>
+    <t>−21.50</t>
+  </si>
+  <si>
+    <t>+0.95</t>
+  </si>
+  <si>
+    <t>−1.50</t>
+  </si>
+  <si>
+    <t>+5.10</t>
+  </si>
+  <si>
+    <t>−3.45</t>
+  </si>
+  <si>
+    <t>−1.90</t>
+  </si>
+  <si>
+    <t>+7.50</t>
+  </si>
+  <si>
+    <t>−0.65</t>
+  </si>
+  <si>
+    <t>+42.15</t>
+  </si>
+  <si>
+    <t>+8.85</t>
+  </si>
+  <si>
+    <t>+34.45</t>
+  </si>
+  <si>
+    <t>+10.55</t>
+  </si>
+  <si>
+    <t>+21.35</t>
+  </si>
+  <si>
+    <t>−15.50</t>
+  </si>
+  <si>
+    <t>+1.25</t>
+  </si>
+  <si>
+    <t>+80.40</t>
+  </si>
+  <si>
+    <t>+2.08</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>−186.20</t>
+  </si>
+  <si>
+    <t>+0.15</t>
+  </si>
+  <si>
+    <t>−13.40</t>
+  </si>
+  <si>
+    <t>−7.20</t>
+  </si>
+  <si>
+    <t>+4.80</t>
+  </si>
+  <si>
+    <t>−2.35</t>
+  </si>
+  <si>
+    <t>+18.30</t>
+  </si>
+  <si>
+    <t>−4.45</t>
+  </si>
+  <si>
+    <t>−2.10</t>
+  </si>
+  <si>
+    <t>−14.45</t>
+  </si>
+  <si>
+    <t>−17.35</t>
+  </si>
+  <si>
+    <t>+24.05</t>
+  </si>
+  <si>
+    <t>−8.35</t>
+  </si>
+  <si>
+    <t>+8.80</t>
+  </si>
+  <si>
+    <t>−12.20</t>
+  </si>
+  <si>
+    <t>+7.05</t>
+  </si>
+  <si>
+    <t>+13.30</t>
+  </si>
+  <si>
+    <t>−15.25</t>
+  </si>
+  <si>
+    <t>+52.80</t>
+  </si>
+  <si>
+    <t>−0.25</t>
+  </si>
+  <si>
+    <t>22/12/2022</t>
+  </si>
+  <si>
+    <t>+56.82</t>
+  </si>
+  <si>
+    <t>−71.75</t>
+  </si>
+  <si>
+    <t>−0.090</t>
+  </si>
+  <si>
+    <t>−24.20</t>
+  </si>
+  <si>
+    <t>+8.45</t>
+  </si>
+  <si>
+    <t>−1.25</t>
+  </si>
+  <si>
+    <t>−13.55</t>
+  </si>
+  <si>
+    <t>+0.75</t>
+  </si>
+  <si>
+    <t>−0.75</t>
+  </si>
+  <si>
+    <t>−6.80</t>
+  </si>
+  <si>
+    <t>−38.40</t>
+  </si>
+  <si>
+    <t>−7.90</t>
+  </si>
+  <si>
+    <t>−4.35</t>
+  </si>
+  <si>
+    <t>−17.90</t>
+  </si>
+  <si>
+    <t>−10.05</t>
+  </si>
+  <si>
+    <t>+25.65</t>
+  </si>
+  <si>
+    <t>+20.35</t>
+  </si>
+  <si>
+    <t>−1.20</t>
+  </si>
+  <si>
+    <t>−48.25</t>
+  </si>
+  <si>
+    <t>+7.10</t>
+  </si>
+  <si>
+    <t>+3.61</t>
+  </si>
+  <si>
+    <t>23/12/2022</t>
+  </si>
+  <si>
+    <t>−56.05</t>
+  </si>
+  <si>
+    <t>−320.55</t>
+  </si>
+  <si>
+    <t>−0.15</t>
+  </si>
+  <si>
+    <t>−13.05</t>
+  </si>
+  <si>
+    <t>−14.50</t>
+  </si>
+  <si>
+    <t>−23.75</t>
+  </si>
+  <si>
+    <t>−2.15</t>
+  </si>
+  <si>
+    <t>−28.70</t>
+  </si>
+  <si>
+    <t>−6.40</t>
+  </si>
+  <si>
+    <t>−12.35</t>
+  </si>
+  <si>
+    <t>−13.90</t>
+  </si>
+  <si>
+    <t>−30.35</t>
+  </si>
+  <si>
+    <t>−145.60</t>
+  </si>
+  <si>
+    <t>−15.95</t>
+  </si>
+  <si>
+    <t>−7.10</t>
+  </si>
+  <si>
+    <t>−60.40</t>
+  </si>
+  <si>
+    <t>−18.85</t>
+  </si>
+  <si>
+    <t>−76.90</t>
+  </si>
+  <si>
+    <t>−35.55</t>
+  </si>
+  <si>
+    <t>−10.60</t>
+  </si>
+  <si>
+    <t>−117.50</t>
+  </si>
+  <si>
+    <t>−12.65</t>
+  </si>
+  <si>
+    <t>−2.79</t>
+  </si>
+  <si>
+    <t>28/12/2022</t>
+  </si>
+  <si>
+    <t>−15.57</t>
+  </si>
+  <si>
+    <t>−9.80</t>
+  </si>
+  <si>
+    <t>−0.32</t>
+  </si>
+  <si>
+    <t>−2.60</t>
+  </si>
+  <si>
+    <t>−4.85</t>
+  </si>
+  <si>
+    <t>−0.95</t>
+  </si>
+  <si>
+    <t>+1.20</t>
+  </si>
+  <si>
+    <t>−5.00</t>
+  </si>
+  <si>
+    <t>+4.15</t>
+  </si>
+  <si>
+    <t>+32.65</t>
+  </si>
+  <si>
+    <t>−3.40</t>
+  </si>
+  <si>
+    <t>−63.95</t>
+  </si>
+  <si>
+    <t>+5.45</t>
+  </si>
+  <si>
+    <t>−2.00</t>
+  </si>
+  <si>
+    <t>+6.40</t>
+  </si>
+  <si>
+    <t>+1.15</t>
+  </si>
+  <si>
+    <t>−58.90</t>
+  </si>
+  <si>
+    <t>+1.02</t>
+  </si>
+  <si>
+    <t>30/12/2022</t>
+  </si>
+  <si>
+    <t>+66.06</t>
+  </si>
+  <si>
+    <t>−85.70</t>
+  </si>
+  <si>
+    <t>+0.22</t>
+  </si>
+  <si>
+    <t>−11.30</t>
+  </si>
+  <si>
+    <t>−4.05</t>
+  </si>
+  <si>
+    <t>−8.95</t>
+  </si>
+  <si>
+    <t>+2.35</t>
+  </si>
+  <si>
+    <t>−14.15</t>
+  </si>
+  <si>
+    <t>+0.55</t>
+  </si>
+  <si>
+    <t>+10.15</t>
+  </si>
+  <si>
+    <t>−41.20</t>
+  </si>
+  <si>
+    <t>+2.10</t>
+  </si>
+  <si>
+    <t>−7.45</t>
+  </si>
+  <si>
+    <t>+2.20</t>
+  </si>
+  <si>
+    <t>+41.40</t>
+  </si>
+  <si>
+    <t>−28.15</t>
+  </si>
+  <si>
+    <t>+2.00</t>
+  </si>
+  <si>
+    <t>−62.20</t>
+  </si>
+  <si>
+    <t>+5.85</t>
+  </si>
+  <si>
+    <t>+2.56</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>−9.78</t>
+  </si>
+  <si>
+    <t>+35.10</t>
+  </si>
+  <si>
+    <t>+0.45</t>
+  </si>
+  <si>
+    <t>+11.80</t>
   </si>
   <si>
     <t>−14.90</t>
   </si>
   <si>
-    <t>−58.55</t>
-  </si>
-  <si>
-    <t>−4.45</t>
-  </si>
-  <si>
-    <t>−0.80</t>
-  </si>
-  <si>
-    <t>+11.95</t>
-  </si>
-  <si>
-    <t>−3.05</t>
-  </si>
-  <si>
-    <t>−7.90</t>
-  </si>
-  <si>
-    <t>−1.40</t>
-  </si>
-  <si>
-    <t>−9.65</t>
-  </si>
-  <si>
-    <t>−30.10</t>
-  </si>
-  <si>
-    <t>−8.50</t>
-  </si>
-  <si>
-    <t>−7.25</t>
-  </si>
-  <si>
-    <t>−57.85</t>
-  </si>
-  <si>
-    <t>−14.95</t>
-  </si>
-  <si>
-    <t>+16.15</t>
-  </si>
-  <si>
-    <t>−14.05</t>
-  </si>
-  <si>
-    <t>−2.45</t>
-  </si>
-  <si>
-    <t>−36.05</t>
-  </si>
-  <si>
-    <t>−14.65</t>
-  </si>
-  <si>
-    <t>−0.33</t>
+    <t>−3.00</t>
+  </si>
+  <si>
+    <t>+50.55</t>
+  </si>
+  <si>
+    <t>−1.65</t>
+  </si>
+  <si>
+    <t>+15.95</t>
+  </si>
+  <si>
+    <t>+6.00</t>
+  </si>
+  <si>
+    <t>+57.05</t>
+  </si>
+  <si>
+    <t>−0.90</t>
+  </si>
+  <si>
+    <t>+2.05</t>
+  </si>
+  <si>
+    <t>+21.05</t>
+  </si>
+  <si>
+    <t>+15.00</t>
+  </si>
+  <si>
+    <t>+33.40</t>
+  </si>
+  <si>
+    <t>−16.75</t>
+  </si>
+  <si>
+    <t>+23.90</t>
+  </si>
+  <si>
+    <t>−3.75</t>
+  </si>
+  <si>
+    <t>−0.45</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>−50.80</t>
+  </si>
+  <si>
+    <t>+49.65</t>
+  </si>
+  <si>
+    <t>−19.20</t>
+  </si>
+  <si>
+    <t>+0.20</t>
+  </si>
+  <si>
+    <t>−12.00</t>
+  </si>
+  <si>
+    <t>+6.60</t>
+  </si>
+  <si>
+    <t>+11.55</t>
+  </si>
+  <si>
+    <t>+9.25</t>
+  </si>
+  <si>
+    <t>+2.50</t>
+  </si>
+  <si>
+    <t>−31.25</t>
+  </si>
+  <si>
+    <t>+1.40</t>
+  </si>
+  <si>
+    <t>+7.00</t>
+  </si>
+  <si>
+    <t>+18.05</t>
+  </si>
+  <si>
+    <t>−7.50</t>
+  </si>
+  <si>
+    <t>+7.65</t>
+  </si>
+  <si>
+    <t>−6.85</t>
+  </si>
+  <si>
+    <t>−17.95</t>
+  </si>
+  <si>
+    <t>+8.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,212 +1053,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.140625"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875"/>
+    <col min="6" max="6" customWidth="true" width="15.0"/>
+    <col min="7" max="7" customWidth="true" width="13.42578125"/>
+    <col min="8" max="8" customWidth="true" width="13.85546875"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="B24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="62.140625"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125"/>
+    <col min="3" max="3" customWidth="true" width="23.140625"/>
+    <col min="4" max="8" bestFit="true" customWidth="true" width="10.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>